--- a/sonya/doc/sonya_issues.xlsx
+++ b/sonya/doc/sonya_issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,6 +105,27 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Solution</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C:\Program Files\MySQL\MySQL Server 5.0\my.ini 파일에 
+[mysql]
+default-character-set=euckr
+[mysqld]
+default-character-set=euckr 와 같이 수정. 보통 아무 설정을 안하고 mysql을 설치하거나, 패키지로 mysql을 설치할 경우 기본설정으로 character set 은 latin1이 된다. mysql의 이전에 만들었던 table들의 characterset은 변경되는 것이 아니기 때문에 직접 변경 해줘야 한다.
+mysql&gt; status; 명령어로 확인.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MySQL</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,10 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -517,18 +539,18 @@
     <col min="1" max="1" width="5.25" style="8" customWidth="1"/>
     <col min="2" max="2" width="14.875" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.375" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.75" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="3"/>
+    <col min="4" max="5" width="35" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.75" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="3" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1">
+    <row r="1" spans="1:12" s="2" customFormat="1">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -542,33 +564,36 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="33">
+    <row r="2" spans="1:12" ht="221.25" customHeight="1">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>12</v>
@@ -576,25 +601,30 @@
       <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="7">
+      <c r="I2" s="7">
         <v>39607</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="J2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="99">
+      <c r="K2" s="7">
+        <v>39608</v>
+      </c>
+      <c r="L2" s="6"/>
+    </row>
+    <row r="3" spans="1:12" ht="99">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -607,25 +637,26 @@
       <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="7">
+      <c r="I3" s="7">
         <v>39607</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="J3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="33">
+      <c r="K3" s="4"/>
+      <c r="L3" s="6"/>
+    </row>
+    <row r="4" spans="1:12" ht="33">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -638,114 +669,122 @@
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="7">
+      <c r="I4" s="7">
         <v>39607</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="4"/>
+      <c r="L4" s="6"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
-      <c r="E5" s="4"/>
+      <c r="E5" s="6"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="K5" s="4"/>
+      <c r="L5" s="6"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="4"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="K6" s="4"/>
+      <c r="L6" s="6"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="4"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="K7" s="4"/>
+      <c r="L7" s="6"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="4"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="K8" s="4"/>
+      <c r="L8" s="6"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
-      <c r="E9" s="4"/>
+      <c r="E9" s="6"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="K9" s="4"/>
+      <c r="L9" s="6"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
+      <c r="E10" s="6"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="K10" s="4"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="6"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="6"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sonya/doc/sonya_issues.xlsx
+++ b/sonya/doc/sonya_issues.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,10 @@
   </si>
   <si>
     <t>MySQL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>security.xml에 /a4j*/**=ROLE_ANONYMOUS,ROLE_ADMIN,ROLE_USER 추가. Ajax4jsf나 RichFaces태그가 로그인 이전에 정상적으로 rendering되려면, security Role을 위와 같이 줘야 한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,7 +535,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -656,7 +660,7 @@
       <c r="K3" s="4"/>
       <c r="L3" s="6"/>
     </row>
-    <row r="4" spans="1:12" ht="33">
+    <row r="4" spans="1:12" ht="99">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -669,12 +673,14 @@
       <c r="D4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" s="4" t="s">
         <v>21</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>7</v>
@@ -685,7 +691,9 @@
       <c r="J4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="7">
+        <v>39617</v>
+      </c>
       <c r="L4" s="6"/>
     </row>
     <row r="5" spans="1:12">
